--- a/docs/hardware/Helmoro_BoM_fasteners.xlsx
+++ b/docs/hardware/Helmoro_BoM_fasteners.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHE\Documents\Git_Data\HelMoRo\docs\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A3CC58-C1A1-4C41-97B1-07200048D117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605207F9-48DA-4EEE-A783-2232A97AF58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D43A7108-50A9-4FCF-900B-676A8BDC7C7C}"/>
+    <workbookView xWindow="-26070" yWindow="2730" windowWidth="16035" windowHeight="10920" xr2:uid="{D43A7108-50A9-4FCF-900B-676A8BDC7C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>QTY</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Manufacturing type</t>
   </si>
   <si>
     <t>PRODUCT CODE</t>
@@ -193,9 +190,6 @@
     <t>Screw M3x4</t>
   </si>
   <si>
-    <t>Bossard</t>
-  </si>
-  <si>
     <t xml:space="preserve">ISO 4762 M3 x 30 </t>
   </si>
   <si>
@@ -221,6 +215,9 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>[Bossard](https://www.bossard.com/eshop/ch-en/screws/screws-and-bolts-with-internal-drive/hex-socket-head-cap-screws-fully-threaded/p/3/)</t>
   </si>
 </sst>
 </file>
@@ -312,7 +309,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="727">
+  <dxfs count="585">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -446,7 +443,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Century Gothic"/>
+        <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
@@ -522,11 +519,33 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Arial"/>
+        <name val="Century Gothic"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -549,66 +568,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -4744,1021 +4703,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5773,13 +4717,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC433D18-8D56-470A-8DB2-FE2100CD4686}" name="Table1" displayName="Table1" ref="A1:G54" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16">
-  <autoFilter ref="A1:G54" xr:uid="{AB8CB7B2-62CE-4583-9267-907B832DB447}"/>
-  <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{E4EF20A8-BAA7-4285-8E2C-1FF15F4D9DE0}" name="QTY" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{7C114C88-4C53-4A01-875E-42C9A5D3836B}" name="DOCUMENT-NR." dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{F56A10FA-89C2-4781-AECC-93B30002C92E}" name="DESCRIPTION" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{DC161508-7262-4AC6-90ED-F4CD4C38651A}" name="Manufacturing type" dataDxfId="9" totalsRowDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC433D18-8D56-470A-8DB2-FE2100CD4686}" name="Table1" displayName="Table1" ref="A1:F54" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
+  <autoFilter ref="A1:F54" xr:uid="{AB8CB7B2-62CE-4583-9267-907B832DB447}"/>
+  <tableColumns count="6">
+    <tableColumn id="2" xr3:uid="{E4EF20A8-BAA7-4285-8E2C-1FF15F4D9DE0}" name="QTY" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{7C114C88-4C53-4A01-875E-42C9A5D3836B}" name="DOCUMENT-NR." dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{F56A10FA-89C2-4781-AECC-93B30002C92E}" name="DESCRIPTION" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="6" xr3:uid="{15467916-B419-479D-A3A9-C6B2B5C762DF}" name="PRODUCT CODE" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="7" xr3:uid="{2349CBB5-C81B-4DFD-9B9F-CC6E1EB0C9BF}" name="SUPPLIER" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="14" xr3:uid="{36592479-8EA8-4D42-8DFF-452C7024B605}" name="Price per unit (CHF)" dataDxfId="3" totalsRowDxfId="2"/>
@@ -6102,10 +5045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C6E063-1877-40DA-BDBC-FD081DB60E9D}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6113,14 +5056,13 @@
     <col min="1" max="1" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="40.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6137,686 +5079,602 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>60</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>59</v>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>12</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>39</v>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>25</v>
+        <v>58</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="6"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="6"/>
+      <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="5"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{2DB68C68-C8A3-4D36-85A2-312BD3E62D69}">
@@ -6825,2481 +5683,1991 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="F25:F31">
-    <cfRule type="expression" dxfId="726" priority="1101">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="725" priority="1102">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="724" priority="1103">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="723" priority="1104">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:G16 F22 G32 F33:G33 E37:F40 F41 F43 E44:F44 F45:F46 F48 E23:G31 D42:F42 D47:G47 D43 D41 D33 A37:A54">
-    <cfRule type="expression" dxfId="722" priority="1109">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="721" priority="1110">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="720" priority="1111">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="719" priority="1112">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:F31">
-    <cfRule type="expression" dxfId="718" priority="1113">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="717" priority="1114">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="716" priority="1115">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="715" priority="1116">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18 F52:F54 D17:G17 D19:F19 E20:F20 D21:F21 D35:G36">
-    <cfRule type="expression" dxfId="714" priority="1125">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="713" priority="1126">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="712" priority="1127">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="711" priority="1128">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="710" priority="1221">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="709" priority="1222">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="708" priority="1223">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="707" priority="1224">
+  <conditionalFormatting sqref="E25:E31">
+    <cfRule type="expression" dxfId="584" priority="1101">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="583" priority="1102">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="582" priority="1103">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="581" priority="1104">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22 F32 E33:F33 D37:E40 E41 E43 D44:E44 E45:E46 E48 D23:F31 A37:A54 D42:E42 D47:F47 D16:F17 D19:E19 D21:E21 D35:F36 C2:F2 C10:F10 C12:E12">
+    <cfRule type="expression" dxfId="580" priority="1109">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="579" priority="1110">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="578" priority="1111">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="577" priority="1112">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E31">
+    <cfRule type="expression" dxfId="576" priority="1113">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="575" priority="1114">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="574" priority="1115">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="573" priority="1116">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18 E52:E54 D20:E20">
+    <cfRule type="expression" dxfId="572" priority="1125">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="571" priority="1126">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="570" priority="1127">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="569" priority="1128">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="568" priority="1221">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="567" priority="1222">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="566" priority="1223">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="565" priority="1224">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" dxfId="564" priority="1273">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="563" priority="1274">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="562" priority="1275">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="561" priority="1276">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="560" priority="881">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="559" priority="882">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="558" priority="883">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="557" priority="884">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="556" priority="869">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="555" priority="870">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="554" priority="871">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="553" priority="872">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" dxfId="552" priority="865">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="551" priority="866">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="550" priority="867">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="549" priority="868">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="548" priority="861">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="547" priority="862">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="546" priority="863">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="545" priority="864">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="544" priority="825">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="543" priority="826">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="542" priority="827">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="541" priority="828">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="540" priority="821">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="539" priority="822">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="538" priority="823">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="537" priority="824">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="536" priority="817">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="535" priority="818">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="534" priority="819">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="533" priority="820">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="532" priority="813">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="531" priority="814">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="530" priority="815">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="529" priority="816">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="expression" dxfId="528" priority="805">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="527" priority="806">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="526" priority="807">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="525" priority="808">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="expression" dxfId="524" priority="801">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="523" priority="802">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="522" priority="803">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="521" priority="804">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="expression" dxfId="520" priority="789">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="519" priority="790">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="518" priority="791">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="517" priority="792">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="expression" dxfId="516" priority="785">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="515" priority="786">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="514" priority="787">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="513" priority="788">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="expression" dxfId="512" priority="777">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="511" priority="778">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="510" priority="779">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="509" priority="780">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="expression" dxfId="508" priority="773">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="507" priority="774">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="506" priority="775">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="505" priority="776">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="expression" dxfId="504" priority="769">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="503" priority="770">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="502" priority="771">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="501" priority="772">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="expression" dxfId="500" priority="765">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="499" priority="766">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="498" priority="767">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="497" priority="768">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="expression" dxfId="496" priority="761">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="495" priority="762">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="494" priority="763">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="493" priority="764">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="expression" dxfId="492" priority="753">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="491" priority="754">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="490" priority="755">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="489" priority="756">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="expression" dxfId="488" priority="749">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="487" priority="750">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="486" priority="751">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="485" priority="752">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="484" priority="741">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="483" priority="742">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="482" priority="743">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="481" priority="744">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="480" priority="733">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="479" priority="734">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="478" priority="735">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="477" priority="736">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="expression" dxfId="476" priority="729">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="475" priority="730">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="474" priority="731">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="473" priority="732">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="472" priority="721">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="471" priority="722">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="470" priority="723">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="469" priority="724">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="expression" dxfId="468" priority="717">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="467" priority="718">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="466" priority="719">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="465" priority="720">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="expression" dxfId="464" priority="713">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="463" priority="714">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="462" priority="715">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="461" priority="716">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="460" priority="709">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="459" priority="710">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="458" priority="711">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="457" priority="712">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="456" priority="701">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="455" priority="702">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="454" priority="703">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="453" priority="704">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="452" priority="697">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="451" priority="698">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="450" priority="699">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="449" priority="700">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="expression" dxfId="448" priority="693">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="447" priority="694">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="446" priority="695">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="445" priority="696">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="expression" dxfId="706" priority="1273">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="705" priority="1274">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="704" priority="1275">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="703" priority="1276">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="702" priority="885">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="701" priority="886">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="700" priority="887">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="699" priority="888">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="698" priority="881">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="697" priority="882">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="696" priority="883">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="695" priority="884">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="694" priority="877">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="693" priority="878">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="692" priority="879">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="691" priority="880">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="690" priority="873">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="689" priority="874">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="688" priority="875">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="687" priority="876">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="686" priority="869">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="685" priority="870">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="684" priority="871">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="683" priority="872">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="682" priority="865">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="681" priority="866">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="680" priority="867">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="679" priority="868">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="678" priority="861">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="677" priority="862">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="676" priority="863">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="675" priority="864">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="674" priority="857">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="673" priority="858">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="672" priority="859">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="671" priority="860">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="670" priority="853">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="669" priority="854">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="668" priority="855">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="667" priority="856">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="666" priority="849">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="665" priority="850">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="664" priority="851">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="663" priority="852">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D26 D30:D31">
-    <cfRule type="expression" dxfId="662" priority="845">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="661" priority="846">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="660" priority="847">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="659" priority="848">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="658" priority="829">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="657" priority="830">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="656" priority="831">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="655" priority="832">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="654" priority="825">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="653" priority="826">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="652" priority="827">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="651" priority="828">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="650" priority="821">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="649" priority="822">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="648" priority="823">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="647" priority="824">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="646" priority="817">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="645" priority="818">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="644" priority="819">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="643" priority="820">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="642" priority="813">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="641" priority="814">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="640" priority="815">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="639" priority="816">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="638" priority="809">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="637" priority="810">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="636" priority="811">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="635" priority="812">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="expression" dxfId="634" priority="805">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="633" priority="806">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="632" priority="807">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="631" priority="808">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="expression" dxfId="630" priority="801">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="629" priority="802">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="628" priority="803">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="627" priority="804">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="626" priority="797">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="625" priority="798">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="624" priority="799">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="623" priority="800">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="622" priority="793">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="621" priority="794">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="620" priority="795">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="619" priority="796">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="618" priority="789">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="617" priority="790">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="616" priority="791">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="615" priority="792">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="expression" dxfId="614" priority="785">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="613" priority="786">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="612" priority="787">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="611" priority="788">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="expression" dxfId="610" priority="781">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="609" priority="782">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="608" priority="783">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="607" priority="784">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="606" priority="777">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="605" priority="778">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="604" priority="779">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="603" priority="780">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="expression" dxfId="602" priority="773">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="601" priority="774">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="600" priority="775">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="599" priority="776">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
-    <cfRule type="expression" dxfId="598" priority="769">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="597" priority="770">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="596" priority="771">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="595" priority="772">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="594" priority="765">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="593" priority="766">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="592" priority="767">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="591" priority="768">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="590" priority="761">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="589" priority="762">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="588" priority="763">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="587" priority="764">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="586" priority="757">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="585" priority="758">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="584" priority="759">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="583" priority="760">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="582" priority="753">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="581" priority="754">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="580" priority="755">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="579" priority="756">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="578" priority="749">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="577" priority="750">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="576" priority="751">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="575" priority="752">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="574" priority="745">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="573" priority="746">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="572" priority="747">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="571" priority="748">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="570" priority="741">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="569" priority="742">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="568" priority="743">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="567" priority="744">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="566" priority="737">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="565" priority="738">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="564" priority="739">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="563" priority="740">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="562" priority="733">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="561" priority="734">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="560" priority="735">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="559" priority="736">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="558" priority="729">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="557" priority="730">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="556" priority="731">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="555" priority="732">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="554" priority="725">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="553" priority="726">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="552" priority="727">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="551" priority="728">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="550" priority="721">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="549" priority="722">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="548" priority="723">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="547" priority="724">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="546" priority="717">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="545" priority="718">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="544" priority="719">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="543" priority="720">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="542" priority="713">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="541" priority="714">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="540" priority="715">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="539" priority="716">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="538" priority="709">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="537" priority="710">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="536" priority="711">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="535" priority="712">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="534" priority="705">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="533" priority="706">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="532" priority="707">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="531" priority="708">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="530" priority="701">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="529" priority="702">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="528" priority="703">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="527" priority="704">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="expression" dxfId="526" priority="697">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="525" priority="698">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="524" priority="699">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="523" priority="700">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="522" priority="693">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="521" priority="694">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="520" priority="695">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="519" priority="696">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="518" priority="689">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="517" priority="690">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="516" priority="691">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="515" priority="692">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="514" priority="685">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="513" priority="686">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="512" priority="687">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="511" priority="688">
+    <cfRule type="expression" dxfId="444" priority="689">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="443" priority="690">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="442" priority="691">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="441" priority="692">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="510" priority="681">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="509" priority="682">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="508" priority="683">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="507" priority="684">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="506" priority="677">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="505" priority="678">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="504" priority="679">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="503" priority="680">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="expression" dxfId="502" priority="673">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="501" priority="674">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="500" priority="675">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="499" priority="676">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="498" priority="669">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="497" priority="670">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="496" priority="671">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="495" priority="672">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="expression" dxfId="494" priority="665">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="493" priority="666">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="492" priority="667">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="491" priority="668">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="490" priority="661">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="489" priority="662">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="488" priority="663">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="487" priority="664">
+    <cfRule type="expression" dxfId="440" priority="677">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="439" priority="678">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="438" priority="679">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="437" priority="680">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="expression" dxfId="436" priority="673">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="435" priority="674">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="434" priority="675">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="433" priority="676">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="expression" dxfId="432" priority="669">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="431" priority="670">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="430" priority="671">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="429" priority="672">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="expression" dxfId="428" priority="665">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="427" priority="666">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="426" priority="667">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="425" priority="668">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="486" priority="657">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="485" priority="658">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="484" priority="659">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="483" priority="660">
+    <cfRule type="expression" dxfId="424" priority="661">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="423" priority="662">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="422" priority="663">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="421" priority="664">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="482" priority="653">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="481" priority="654">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="480" priority="655">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="479" priority="656">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="478" priority="649">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="477" priority="650">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="476" priority="651">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="475" priority="652">
+    <cfRule type="expression" dxfId="420" priority="649">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="419" priority="650">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="418" priority="651">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="417" priority="652">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C40 B41 B43 C44 B47:C47 B42:C42 A33:C33">
-    <cfRule type="expression" dxfId="474" priority="629">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="473" priority="630">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="472" priority="631">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="471" priority="632">
+    <cfRule type="expression" dxfId="416" priority="629">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="415" priority="630">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="414" priority="631">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="413" priority="632">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:C36 B35 A35:A36 A17:C17 A19:C19 A21:C21">
-    <cfRule type="expression" dxfId="470" priority="637">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="469" priority="638">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="468" priority="639">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="467" priority="640">
+    <cfRule type="expression" dxfId="412" priority="637">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="411" priority="638">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="410" priority="639">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="409" priority="640">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:C16">
-    <cfRule type="expression" dxfId="466" priority="581">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="465" priority="582">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="464" priority="583">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="463" priority="584">
+    <cfRule type="expression" dxfId="408" priority="581">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="407" priority="582">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="406" priority="583">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="405" priority="584">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:C18">
-    <cfRule type="expression" dxfId="462" priority="573">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="461" priority="574">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="460" priority="575">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="459" priority="576">
+    <cfRule type="expression" dxfId="404" priority="573">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="403" priority="574">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="402" priority="575">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="401" priority="576">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:C20">
-    <cfRule type="expression" dxfId="458" priority="569">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="457" priority="570">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="456" priority="571">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="455" priority="572">
+    <cfRule type="expression" dxfId="400" priority="569">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="399" priority="570">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="398" priority="571">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="397" priority="572">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:C22">
-    <cfRule type="expression" dxfId="454" priority="561">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="453" priority="562">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="452" priority="563">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="451" priority="564">
+    <cfRule type="expression" dxfId="396" priority="561">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="395" priority="562">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="394" priority="563">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="393" priority="564">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:C23">
-    <cfRule type="expression" dxfId="450" priority="557">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="449" priority="558">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="448" priority="559">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="447" priority="560">
+    <cfRule type="expression" dxfId="392" priority="557">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="391" priority="558">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="390" priority="559">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="389" priority="560">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:C24">
-    <cfRule type="expression" dxfId="446" priority="553">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="445" priority="554">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="444" priority="555">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="443" priority="556">
+    <cfRule type="expression" dxfId="388" priority="553">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="387" priority="554">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="386" priority="555">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="385" priority="556">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="442" priority="549">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="441" priority="550">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="440" priority="551">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="439" priority="552">
+    <cfRule type="expression" dxfId="384" priority="549">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="383" priority="550">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="382" priority="551">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="381" priority="552">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:C32">
-    <cfRule type="expression" dxfId="438" priority="537">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="437" priority="538">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="436" priority="539">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="435" priority="540">
+    <cfRule type="expression" dxfId="380" priority="537">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="379" priority="538">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="378" priority="539">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="377" priority="540">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="434" priority="521">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="433" priority="522">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="432" priority="523">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="431" priority="524">
+    <cfRule type="expression" dxfId="376" priority="521">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="375" priority="522">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="374" priority="523">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="373" priority="524">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="430" priority="517">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="429" priority="518">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="428" priority="519">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="427" priority="520">
+    <cfRule type="expression" dxfId="372" priority="517">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="371" priority="518">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="370" priority="519">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="369" priority="520">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="426" priority="513">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="425" priority="514">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="424" priority="515">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="423" priority="516">
+    <cfRule type="expression" dxfId="368" priority="513">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="367" priority="514">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="366" priority="515">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="365" priority="516">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="422" priority="509">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="421" priority="510">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="420" priority="511">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="419" priority="512">
+    <cfRule type="expression" dxfId="364" priority="509">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="363" priority="510">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="362" priority="511">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="361" priority="512">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="418" priority="505">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="417" priority="506">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="416" priority="507">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="415" priority="508">
+    <cfRule type="expression" dxfId="360" priority="505">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="359" priority="506">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="358" priority="507">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="357" priority="508">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="414" priority="501">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="413" priority="502">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="412" priority="503">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="411" priority="504">
+    <cfRule type="expression" dxfId="356" priority="501">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="355" priority="502">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="354" priority="503">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="353" priority="504">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="410" priority="497">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="409" priority="498">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="408" priority="499">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="407" priority="500">
+    <cfRule type="expression" dxfId="352" priority="497">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="351" priority="498">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="350" priority="499">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="349" priority="500">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="406" priority="493">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="405" priority="494">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="404" priority="495">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="403" priority="496">
+    <cfRule type="expression" dxfId="348" priority="493">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="347" priority="494">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="346" priority="495">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="345" priority="496">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="402" priority="489">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="401" priority="490">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="400" priority="491">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="399" priority="492">
+    <cfRule type="expression" dxfId="344" priority="489">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="343" priority="490">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="342" priority="491">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="341" priority="492">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="398" priority="485">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="397" priority="486">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="396" priority="487">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="395" priority="488">
+    <cfRule type="expression" dxfId="340" priority="485">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="339" priority="486">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="338" priority="487">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="337" priority="488">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="394" priority="481">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="393" priority="482">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="392" priority="483">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="391" priority="484">
+    <cfRule type="expression" dxfId="336" priority="481">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="335" priority="482">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="334" priority="483">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="333" priority="484">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="390" priority="477">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="389" priority="478">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="388" priority="479">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="387" priority="480">
+    <cfRule type="expression" dxfId="332" priority="477">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="331" priority="478">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="330" priority="479">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="329" priority="480">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="386" priority="473">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="385" priority="474">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="384" priority="475">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="383" priority="476">
+    <cfRule type="expression" dxfId="328" priority="473">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="327" priority="474">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="326" priority="475">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="325" priority="476">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="382" priority="469">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="381" priority="470">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="380" priority="471">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="379" priority="472">
+    <cfRule type="expression" dxfId="324" priority="469">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="323" priority="470">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="322" priority="471">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="321" priority="472">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="378" priority="465">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="377" priority="466">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="376" priority="467">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="375" priority="468">
+    <cfRule type="expression" dxfId="320" priority="465">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="319" priority="466">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="467">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="468">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="374" priority="461">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="373" priority="462">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="372" priority="463">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="371" priority="464">
+    <cfRule type="expression" dxfId="316" priority="461">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="315" priority="462">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="314" priority="463">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="313" priority="464">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="370" priority="457">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="369" priority="458">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="368" priority="459">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="367" priority="460">
+    <cfRule type="expression" dxfId="312" priority="457">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="311" priority="458">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="310" priority="459">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="309" priority="460">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="366" priority="453">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="365" priority="454">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="364" priority="455">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="363" priority="456">
+    <cfRule type="expression" dxfId="308" priority="453">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="307" priority="454">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="455">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="305" priority="456">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="362" priority="449">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="361" priority="450">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="360" priority="451">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="359" priority="452">
+    <cfRule type="expression" dxfId="304" priority="449">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="303" priority="450">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="302" priority="451">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="301" priority="452">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="358" priority="445">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="357" priority="446">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="356" priority="447">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="355" priority="448">
+    <cfRule type="expression" dxfId="300" priority="445">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="299" priority="446">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="298" priority="447">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="297" priority="448">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="354" priority="441">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="353" priority="442">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="352" priority="443">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="351" priority="444">
+    <cfRule type="expression" dxfId="296" priority="441">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="295" priority="442">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="443">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="293" priority="444">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="350" priority="437">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="349" priority="438">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="348" priority="439">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="347" priority="440">
+    <cfRule type="expression" dxfId="292" priority="437">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="438">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="290" priority="439">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="289" priority="440">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="346" priority="433">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="345" priority="434">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="344" priority="435">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="343" priority="436">
+    <cfRule type="expression" dxfId="288" priority="433">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="287" priority="434">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="286" priority="435">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="285" priority="436">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:C31">
-    <cfRule type="expression" dxfId="342" priority="417">
-      <formula>$K31="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="341" priority="418">
-      <formula>$K31="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="340" priority="419">
-      <formula>$K31="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="339" priority="420">
-      <formula>$K31="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D28">
-    <cfRule type="expression" dxfId="338" priority="409">
-      <formula>$K27="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="337" priority="410">
-      <formula>$K27="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="336" priority="411">
-      <formula>$K27="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="335" priority="412">
-      <formula>$K27="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="334" priority="405">
-      <formula>$K29="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="333" priority="406">
-      <formula>$K29="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="332" priority="407">
-      <formula>$K29="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="331" priority="408">
-      <formula>$K29="Open"</formula>
+    <cfRule type="expression" dxfId="284" priority="417">
+      <formula>$J31="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="283" priority="418">
+      <formula>$J31="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="419">
+      <formula>$J31="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="281" priority="420">
+      <formula>$J31="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="330" priority="401">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="329" priority="402">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="328" priority="403">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="327" priority="404">
+    <cfRule type="expression" dxfId="280" priority="401">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="402">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="403">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="404">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="326" priority="397">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="325" priority="398">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="324" priority="399">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="323" priority="400">
+    <cfRule type="expression" dxfId="276" priority="397">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="275" priority="398">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="399">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="273" priority="400">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="322" priority="393">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="321" priority="394">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="320" priority="395">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="319" priority="396">
+    <cfRule type="expression" dxfId="272" priority="393">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="271" priority="394">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="395">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="269" priority="396">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="318" priority="389">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="317" priority="390">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="316" priority="391">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="315" priority="392">
+    <cfRule type="expression" dxfId="268" priority="389">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="267" priority="390">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="391">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="265" priority="392">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:C30">
-    <cfRule type="expression" dxfId="314" priority="385">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="313" priority="386">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="312" priority="387">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="311" priority="388">
+    <cfRule type="expression" dxfId="264" priority="385">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="263" priority="386">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="387">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="388">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:C30">
-    <cfRule type="expression" dxfId="310" priority="381">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="309" priority="382">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="308" priority="383">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="307" priority="384">
+    <cfRule type="expression" dxfId="260" priority="381">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="259" priority="382">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="383">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="257" priority="384">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:C31">
-    <cfRule type="expression" dxfId="306" priority="377">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="305" priority="378">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="304" priority="379">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="303" priority="380">
+    <cfRule type="expression" dxfId="256" priority="377">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="255" priority="378">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="379">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="253" priority="380">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:C32">
-    <cfRule type="expression" dxfId="302" priority="373">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="301" priority="374">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="300" priority="375">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="299" priority="376">
+    <cfRule type="expression" dxfId="252" priority="373">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="251" priority="374">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="375">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="376">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:C33">
-    <cfRule type="expression" dxfId="298" priority="369">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="297" priority="370">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="296" priority="371">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="295" priority="372">
+    <cfRule type="expression" dxfId="248" priority="369">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="247" priority="370">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="371">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="372">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:C34">
-    <cfRule type="expression" dxfId="294" priority="365">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="293" priority="366">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="367">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="291" priority="368">
+    <cfRule type="expression" dxfId="244" priority="365">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="366">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="367">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="368">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="290" priority="293">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="289" priority="294">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="288" priority="295">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="287" priority="296">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:G2">
-    <cfRule type="expression" dxfId="286" priority="265">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="285" priority="266">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="284" priority="267">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="283" priority="268">
+    <cfRule type="expression" dxfId="240" priority="293">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="239" priority="294">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="295">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="237" priority="296">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="282" priority="261">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="281" priority="262">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="280" priority="263">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="279" priority="264">
+    <cfRule type="expression" dxfId="236" priority="261">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="262">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="263">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="233" priority="264">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="278" priority="257">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="277" priority="258">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="259">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="275" priority="260">
+    <cfRule type="expression" dxfId="232" priority="257">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="231" priority="258">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="259">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="260">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="228" priority="253">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="227" priority="254">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="255">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="256">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="expression" dxfId="274" priority="253">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="273" priority="254">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="272" priority="255">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="271" priority="256">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="270" priority="249">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="269" priority="250">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="251">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="267" priority="252">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="266" priority="245">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="265" priority="246">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="247">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="263" priority="248">
+    <cfRule type="expression" dxfId="224" priority="249">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="223" priority="250">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="251">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="221" priority="252">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="262" priority="241">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="261" priority="242">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="260" priority="243">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="259" priority="244">
+    <cfRule type="expression" dxfId="220" priority="245">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="246">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="247">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="248">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="258" priority="237">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="257" priority="238">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="256" priority="239">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="255" priority="240">
+    <cfRule type="expression" dxfId="216" priority="237">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="238">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="239">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="240">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="254" priority="233">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="253" priority="234">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="235">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="251" priority="236">
+    <cfRule type="expression" dxfId="212" priority="233">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="234">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="235">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="236">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="250" priority="229">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="230">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="248" priority="231">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="247" priority="232">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4 E5:G5 C5 A5">
-    <cfRule type="expression" dxfId="246" priority="225">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="245" priority="226">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="227">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="228">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="242" priority="221">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="222">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="223">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="239" priority="224">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="238" priority="217">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="218">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="219">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="235" priority="220">
+    <cfRule type="expression" dxfId="208" priority="229">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="230">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="231">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="232">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4 C5:F5 A5">
+    <cfRule type="expression" dxfId="204" priority="225">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="226">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="227">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="228">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="200" priority="221">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="222">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="223">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="224">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="234" priority="213">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="233" priority="214">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="215">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="231" priority="216">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="230" priority="209">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="229" priority="210">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="211">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="227" priority="212">
+    <cfRule type="expression" dxfId="196" priority="217">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="218">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="219">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="220">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="226" priority="205">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="206">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="207">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="223" priority="208">
+    <cfRule type="expression" dxfId="192" priority="205">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="206">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="207">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="208">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="222" priority="201">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="221" priority="202">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="203">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="219" priority="204">
+    <cfRule type="expression" dxfId="188" priority="201">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="202">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="203">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="204">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="218" priority="197">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="217" priority="198">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="199">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="215" priority="200">
+    <cfRule type="expression" dxfId="184" priority="197">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="198">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="199">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="200">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="214" priority="193">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="213" priority="194">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="195">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="211" priority="196">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:G6 C6 A6">
-    <cfRule type="expression" dxfId="210" priority="189">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="209" priority="190">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="191">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="192">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="206" priority="185">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="186">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="187">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="188">
+    <cfRule type="expression" dxfId="180" priority="193">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="194">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="195">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="196">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:F6 A6">
+    <cfRule type="expression" dxfId="176" priority="189">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="190">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="191">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="192">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="202" priority="181">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="182">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="183">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="199" priority="184">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:F7 F8:F9 F11 C7 C10:G10 A7 A10">
-    <cfRule type="expression" dxfId="198" priority="177">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="197" priority="178">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="179">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="195" priority="180">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="194" priority="173">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="174">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="175">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="191" priority="176">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="190" priority="169">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="189" priority="170">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="171">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="172">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="186" priority="165">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="185" priority="166">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="167">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="168">
+    <cfRule type="expression" dxfId="172" priority="181">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="182">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="183">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="184">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E9 E11 C7:E7 A7 A10">
+    <cfRule type="expression" dxfId="168" priority="177">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="178">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="179">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="180">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="164" priority="169">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="170">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="171">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="172">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="160" priority="165">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="166">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="167">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="168">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="182" priority="161">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="181" priority="162">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="163">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="179" priority="164">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="178" priority="157">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="158">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="159">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="160">
+    <cfRule type="expression" dxfId="156" priority="157">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="158">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="159">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="160">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="174" priority="153">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="154">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="155">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="156">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="170" priority="149">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="150">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="151">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="167" priority="152">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="166" priority="145">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="146">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="147">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="148">
+    <cfRule type="expression" dxfId="152" priority="149">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="150">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="151">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="152">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="expression" dxfId="148" priority="145">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="146">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="147">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="148">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="162" priority="141">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="161" priority="142">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="143">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="159" priority="144">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="158" priority="137">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="138">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="139">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="140">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="154" priority="133">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="134">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="135">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="136">
+    <cfRule type="expression" dxfId="144" priority="137">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="138">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="139">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="140">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="expression" dxfId="140" priority="133">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="134">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="135">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="136">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="150" priority="129">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="130">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="131">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="132">
+    <cfRule type="expression" dxfId="136" priority="129">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="130">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="131">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="132">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="146" priority="125">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="126">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="127">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="128">
+    <cfRule type="expression" dxfId="132" priority="125">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="126">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="127">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="128">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="142" priority="121">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="122">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="123">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="124">
+    <cfRule type="expression" dxfId="128" priority="121">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="122">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="123">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="124">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="138" priority="117">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="118">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="119">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="120">
+    <cfRule type="expression" dxfId="124" priority="117">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="118">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="119">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="120">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="134" priority="113">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="114">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="115">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="116">
+    <cfRule type="expression" dxfId="120" priority="113">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="114">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="115">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="116">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="130" priority="109">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="110">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="111">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="112">
+    <cfRule type="expression" dxfId="116" priority="109">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="110">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="111">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="112">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="126" priority="105">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="106">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="107">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="108">
+    <cfRule type="expression" dxfId="112" priority="105">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="106">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="107">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="108">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="122" priority="101">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="102">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="103">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="104">
+    <cfRule type="expression" dxfId="108" priority="101">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="102">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="103">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="104">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="118" priority="97">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="98">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="99">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="100">
+    <cfRule type="expression" dxfId="104" priority="97">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="98">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="99">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="100">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="114" priority="93">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="94">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="95">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="96">
+    <cfRule type="expression" dxfId="100" priority="93">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="94">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="95">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="96">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="110" priority="89">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="90">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="91">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="92">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:F12 A12">
-    <cfRule type="expression" dxfId="106" priority="85">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="86">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="87">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="88">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="102" priority="81">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="82">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="83">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="84">
+    <cfRule type="expression" dxfId="96" priority="89">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="90">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="91">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="92">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="expression" dxfId="92" priority="85">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="86">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="87">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="88">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="88" priority="81">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="82">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="83">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="84">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="98" priority="77">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="78">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="79">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="80">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F15">
-    <cfRule type="expression" dxfId="94" priority="73">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="74">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="75">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="76">
+    <cfRule type="expression" dxfId="84" priority="77">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="78">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="79">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="80">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E15">
+    <cfRule type="expression" dxfId="80" priority="73">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="74">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="75">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="76">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="90" priority="69">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="70">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="71">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="72">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="86" priority="65">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="66">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="67">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="68">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="82" priority="61">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="62">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="63">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="64">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="78" priority="57">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="58">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="59">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="60">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="74" priority="53">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="54">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="55">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="56">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="70" priority="49">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="50">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="51">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="52">
+    <cfRule type="expression" dxfId="76" priority="65">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="66">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="67">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="68">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="72" priority="61">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="62">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="63">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="64">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="68" priority="57">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="58">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="59">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="60">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="expression" dxfId="64" priority="53">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="54">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="55">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="56">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="66" priority="45">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="46">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="47">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="48">
+    <cfRule type="expression" dxfId="60" priority="49">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="50">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="51">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="52">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="62" priority="41">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="42">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="43">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="44">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="58" priority="37">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="38">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="39">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="40">
+    <cfRule type="expression" dxfId="56" priority="37">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="38">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="39">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="40">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="54" priority="33">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="34">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="35">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="36">
+    <cfRule type="expression" dxfId="52" priority="33">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="34">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="35">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="36">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="50" priority="29">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="30">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="31">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="32">
+    <cfRule type="expression" dxfId="48" priority="29">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="30">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="31">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="32">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="46" priority="25">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="26">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="27">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="28">
+    <cfRule type="expression" dxfId="44" priority="25">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="26">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="27">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="28">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="42" priority="21">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="22">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="23">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="24">
+    <cfRule type="expression" dxfId="40" priority="21">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="22">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="23">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="24">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="38" priority="17">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="18">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="19">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="20">
+    <cfRule type="expression" dxfId="36" priority="17">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="18">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="19">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="20">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="34" priority="13">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="14">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="15">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="16">
+    <cfRule type="expression" dxfId="32" priority="13">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="14">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="15">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="16">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="30" priority="9">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="10">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="11">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="12">
+    <cfRule type="expression" dxfId="28" priority="9">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="10">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="11">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="12">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="26" priority="5">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="6">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="7">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="8">
+    <cfRule type="expression" dxfId="24" priority="5">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="6">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="7">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="22" priority="1">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="3">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="20" priority="1">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="2">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="3">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9333,28 +7701,28 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -9365,7 +7733,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <f>SUBTOTAL(109,Table2[Total '[CHF']])</f>
@@ -9393,42 +7761,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -9583,7 +7951,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD7E9B68-5ADE-4FBF-BE8B-97D2FCBB26BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6732F7FA-6296-4A7E-ACC0-B3550B3D96F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="HelblingDocs"/>

--- a/docs/hardware/Helmoro_BoM_fasteners.xlsx
+++ b/docs/hardware/Helmoro_BoM_fasteners.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHE\Documents\Git_Data\HelMoRo\docs\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605207F9-48DA-4EEE-A783-2232A97AF58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2802D8F8-36F2-44B8-8EAC-15485DAFEBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26070" yWindow="2730" windowWidth="16035" windowHeight="10920" xr2:uid="{D43A7108-50A9-4FCF-900B-676A8BDC7C7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D43A7108-50A9-4FCF-900B-676A8BDC7C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>QTY</t>
-  </si>
-  <si>
-    <t>DOCUMENT-NR.</t>
   </si>
   <si>
     <t>DESCRIPTION</t>
@@ -109,9 +106,6 @@
     <t>Total [CHF]</t>
   </si>
   <si>
-    <t>Price per unit (CHF)</t>
-  </si>
-  <si>
     <t>PEM CLA-M3-1 ---N</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
   </si>
   <si>
     <t>Screws M3x18</t>
-  </si>
-  <si>
-    <t>HEL-06-01009-00</t>
   </si>
   <si>
     <t>Gewindebuchsen für Kunststoffe 003-M3</t>
@@ -184,9 +175,6 @@
     <t>Screw M2.5x16</t>
   </si>
   <si>
-    <t>HEL-05-03001-00</t>
-  </si>
-  <si>
     <t>Screw M3x4</t>
   </si>
   <si>
@@ -218,6 +206,18 @@
   </si>
   <si>
     <t>[Bossard](https://www.bossard.com/eshop/ch-en/screws/screws-and-bolts-with-internal-drive/hex-socket-head-cap-screws-fully-threaded/p/3/)</t>
+  </si>
+  <si>
+    <t>ISO 4762 M3x4</t>
+  </si>
+  <si>
+    <t>Thread Insert MULTISERT 003M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PART NR. </t>
+  </si>
+  <si>
+    <t>PRICE PER UNIT (CHF)</t>
   </si>
 </sst>
 </file>
@@ -311,6 +311,25 @@
   </cellStyles>
   <dxfs count="585">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -567,25 +586,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -4717,15 +4717,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC433D18-8D56-470A-8DB2-FE2100CD4686}" name="Table1" displayName="Table1" ref="A1:F54" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC433D18-8D56-470A-8DB2-FE2100CD4686}" name="Table1" displayName="Table1" ref="A1:F54" totalsRowShown="0" headerRowDxfId="0" dataDxfId="16" totalsRowDxfId="15">
   <autoFilter ref="A1:F54" xr:uid="{AB8CB7B2-62CE-4583-9267-907B832DB447}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{E4EF20A8-BAA7-4285-8E2C-1FF15F4D9DE0}" name="QTY" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{7C114C88-4C53-4A01-875E-42C9A5D3836B}" name="DOCUMENT-NR." dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{F56A10FA-89C2-4781-AECC-93B30002C92E}" name="DESCRIPTION" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{15467916-B419-479D-A3A9-C6B2B5C762DF}" name="PRODUCT CODE" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{2349CBB5-C81B-4DFD-9B9F-CC6E1EB0C9BF}" name="SUPPLIER" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{36592479-8EA8-4D42-8DFF-452C7024B605}" name="Price per unit (CHF)" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E4EF20A8-BAA7-4285-8E2C-1FF15F4D9DE0}" name="QTY" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{7C114C88-4C53-4A01-875E-42C9A5D3836B}" name="PART NR. " dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{F56A10FA-89C2-4781-AECC-93B30002C92E}" name="DESCRIPTION" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{15467916-B419-479D-A3A9-C6B2B5C762DF}" name="PRODUCT CODE" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{2349CBB5-C81B-4DFD-9B9F-CC6E1EB0C9BF}" name="SUPPLIER" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{36592479-8EA8-4D42-8DFF-452C7024B605}" name="PRICE PER UNIT (CHF)" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4740,9 +4740,9 @@
     <tableColumn id="3" xr3:uid="{A8C4F21C-CD18-4C55-8F37-A63DC3DADA2A}" name="Length [m]"/>
     <tableColumn id="4" xr3:uid="{58450646-C7B3-41F9-9EA9-C5AC13C9F0E1}" name="QTY to ZHR"/>
     <tableColumn id="5" xr3:uid="{7591EFD4-7391-4754-8536-9BFADAB2E4F8}" name="QTY to BOS"/>
-    <tableColumn id="6" xr3:uid="{62F124C5-9852-4F6A-9A5B-7833BB832B2B}" name="TOTAL QTY" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{62F124C5-9852-4F6A-9A5B-7833BB832B2B}" name="TOTAL QTY" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{96FA4321-6955-4909-B76A-703878A5516D}" name="Cost/part [CHF]"/>
-    <tableColumn id="8" xr3:uid="{F9E937AD-E464-40D7-87A7-E2D2618ABCD4}" name="Total [CHF]" totalsRowFunction="sum" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{F9E937AD-E464-40D7-87A7-E2D2618ABCD4}" name="Total [CHF]" totalsRowFunction="sum" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5048,7 +5048,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5058,7 +5058,7 @@
     <col min="3" max="3" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -5067,19 +5067,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5087,19 +5087,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5107,19 +5107,19 @@
         <v>60</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5127,19 +5127,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -5147,19 +5147,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -5167,16 +5167,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" s="6">
         <v>3</v>
@@ -5187,19 +5187,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5207,19 +5207,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5227,19 +5227,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5247,19 +5247,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5267,19 +5267,19 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
@@ -5287,19 +5287,19 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5307,19 +5307,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5327,19 +5327,19 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5347,19 +5347,19 @@
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7701,28 +7701,28 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7733,7 +7733,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9">
         <f>SUBTOTAL(109,Table2[Total '[CHF']])</f>
@@ -7761,42 +7761,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -7951,7 +7951,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6732F7FA-6296-4A7E-ACC0-B3550B3D96F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42CC9AC7-53DD-4EA1-94F4-5CED16B8A117}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="HelblingDocs"/>

--- a/docs/hardware/Helmoro_BoM_fasteners.xlsx
+++ b/docs/hardware/Helmoro_BoM_fasteners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHE\Documents\Git_Data\HelMoRo\docs\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2802D8F8-36F2-44B8-8EAC-15485DAFEBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D817FA6-1C7B-4F5B-BF34-F5487668D148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D43A7108-50A9-4FCF-900B-676A8BDC7C7C}"/>
   </bookViews>
@@ -311,6 +311,262 @@
   </cellStyles>
   <dxfs count="585">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -330,262 +586,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -4717,15 +4717,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC433D18-8D56-470A-8DB2-FE2100CD4686}" name="Table1" displayName="Table1" ref="A1:F54" totalsRowShown="0" headerRowDxfId="0" dataDxfId="16" totalsRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC433D18-8D56-470A-8DB2-FE2100CD4686}" name="Table1" displayName="Table1" ref="A1:F54" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
   <autoFilter ref="A1:F54" xr:uid="{AB8CB7B2-62CE-4583-9267-907B832DB447}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F54">
+    <sortCondition ref="B1:B54"/>
+  </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{E4EF20A8-BAA7-4285-8E2C-1FF15F4D9DE0}" name="QTY" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{7C114C88-4C53-4A01-875E-42C9A5D3836B}" name="PART NR. " dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{F56A10FA-89C2-4781-AECC-93B30002C92E}" name="DESCRIPTION" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{15467916-B419-479D-A3A9-C6B2B5C762DF}" name="PRODUCT CODE" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{2349CBB5-C81B-4DFD-9B9F-CC6E1EB0C9BF}" name="SUPPLIER" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{36592479-8EA8-4D42-8DFF-452C7024B605}" name="PRICE PER UNIT (CHF)" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E4EF20A8-BAA7-4285-8E2C-1FF15F4D9DE0}" name="QTY" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{7C114C88-4C53-4A01-875E-42C9A5D3836B}" name="PART NR. " dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{F56A10FA-89C2-4781-AECC-93B30002C92E}" name="DESCRIPTION" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{15467916-B419-479D-A3A9-C6B2B5C762DF}" name="PRODUCT CODE" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{2349CBB5-C81B-4DFD-9B9F-CC6E1EB0C9BF}" name="SUPPLIER" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{36592479-8EA8-4D42-8DFF-452C7024B605}" name="PRICE PER UNIT (CHF)" dataDxfId="3" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4740,9 +4743,9 @@
     <tableColumn id="3" xr3:uid="{A8C4F21C-CD18-4C55-8F37-A63DC3DADA2A}" name="Length [m]"/>
     <tableColumn id="4" xr3:uid="{58450646-C7B3-41F9-9EA9-C5AC13C9F0E1}" name="QTY to ZHR"/>
     <tableColumn id="5" xr3:uid="{7591EFD4-7391-4754-8536-9BFADAB2E4F8}" name="QTY to BOS"/>
-    <tableColumn id="6" xr3:uid="{62F124C5-9852-4F6A-9A5B-7833BB832B2B}" name="TOTAL QTY" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{62F124C5-9852-4F6A-9A5B-7833BB832B2B}" name="TOTAL QTY" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{96FA4321-6955-4909-B76A-703878A5516D}" name="Cost/part [CHF]"/>
-    <tableColumn id="8" xr3:uid="{F9E937AD-E464-40D7-87A7-E2D2618ABCD4}" name="Total [CHF]" totalsRowFunction="sum" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{F9E937AD-E464-40D7-87A7-E2D2618ABCD4}" name="Total [CHF]" totalsRowFunction="sum" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5048,7 +5051,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5084,53 +5087,53 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>60</v>
+      <c r="A3" s="5">
+        <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>22</v>
+      <c r="F3" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>22</v>
@@ -5143,62 +5146,62 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
+      <c r="A5" s="6">
+        <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>53</v>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="6">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>33</v>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5207,10 +5210,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>22</v>
@@ -5223,17 +5226,17 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2</v>
+      <c r="A9" s="5">
+        <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>26</v>
@@ -5243,22 +5246,22 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5267,10 +5270,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>22</v>
@@ -5304,42 +5307,42 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5347,10 +5350,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>22</v>
@@ -7951,7 +7954,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42CC9AC7-53DD-4EA1-94F4-5CED16B8A117}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6DA515A-9E54-4118-9D3A-6F9CCEF62EF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="HelblingDocs"/>

--- a/docs/hardware/Helmoro_BoM_fasteners.xlsx
+++ b/docs/hardware/Helmoro_BoM_fasteners.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHE\Documents\Git_Data\HelMoRo\docs\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D817FA6-1C7B-4F5B-BF34-F5487668D148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E209B516-130D-48FD-B98F-5BE1C11E6ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D43A7108-50A9-4FCF-900B-676A8BDC7C7C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D43A7108-50A9-4FCF-900B-676A8BDC7C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
@@ -214,10 +214,10 @@
     <t>Thread Insert MULTISERT 003M3</t>
   </si>
   <si>
-    <t xml:space="preserve">PART NR. </t>
+    <t>PRICE PER UNIT (CHF)</t>
   </si>
   <si>
-    <t>PRICE PER UNIT (CHF)</t>
+    <t>NAME</t>
   </si>
 </sst>
 </file>
@@ -4724,7 +4724,7 @@
   </sortState>
   <tableColumns count="6">
     <tableColumn id="2" xr3:uid="{E4EF20A8-BAA7-4285-8E2C-1FF15F4D9DE0}" name="QTY" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{7C114C88-4C53-4A01-875E-42C9A5D3836B}" name="PART NR. " dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{7C114C88-4C53-4A01-875E-42C9A5D3836B}" name="NAME" dataDxfId="11" totalsRowDxfId="10"/>
     <tableColumn id="4" xr3:uid="{F56A10FA-89C2-4781-AECC-93B30002C92E}" name="DESCRIPTION" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="6" xr3:uid="{15467916-B419-479D-A3A9-C6B2B5C762DF}" name="PRODUCT CODE" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="7" xr3:uid="{2349CBB5-C81B-4DFD-9B9F-CC6E1EB0C9BF}" name="SUPPLIER" dataDxfId="5" totalsRowDxfId="4"/>
@@ -5051,7 +5051,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -5082,7 +5082,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7954,7 +7954,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6DA515A-9E54-4118-9D3A-6F9CCEF62EF5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A224267-390D-4AE6-8B9B-E53C8F65807F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="HelblingDocs"/>
